--- a/biology/Botanique/Rheum_telianum/Rheum_telianum.xlsx
+++ b/biology/Botanique/Rheum_telianum/Rheum_telianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rheum telianum est une espèce de rhubarbe de la famille des Polygonaceae découverte en avril 2018 et décrite en 2020. Cette plante est originaire du sud-est de l'Anatolie en Turquie.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de l'espèce a été donné en l'honneur du botaniste le Dr. Ahmet Zafer Tel qui a trouvé les premiers exemplaires de cette plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de l'espèce a été donné en l'honneur du botaniste le Dr. Ahmet Zafer Tel qui a trouvé les premiers exemplaires de cette plante.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rheum telianum est une plante pérenne à rhizome épais.
 Les feuilles sont vertes, coriaces, glabres de 2 côtés (parfois faiblement verruqueuses sur la face supérieure) avec un pétiole faisant entre 2 et 20 cm de long. Les limbes sont réniformes et peuvent mesurer 4,5 à 56 cm de long et de 6 cm à 1 mètre de large. La base des limbes est cordée et faiblement denticulée.
 Les fleurs sont petites, jaune pâle, bisexuelles avec 3 ou 5 fascicules. Les tépales sont au nombre de 6 (les 3 extérieurs sont plus petites). Le périanthe est divisé en 6 segments égaux de 3 à 6 mm de long.
-Les fruits sont des akènes cordés triangulaires à 3 ailes[2].
+Les fruits sont des akènes cordés triangulaires à 3 ailes.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rheum telianum a été découverte dans 2 localités du sud-est de l'Anatolie en Turquie et plus précisément aux environs de la ville d'Adıyaman[3].Environ 300 exemplaires ont été trouvées sur une superficie inférieure à 10 km². Du fait de la faible quantité d'individus et de la faible superficie de répartition, cette espèce va probablement être classée comme en danger critique d'extinction[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rheum telianum a été découverte dans 2 localités du sud-est de l'Anatolie en Turquie et plus précisément aux environs de la ville d'Adıyaman.Environ 300 exemplaires ont été trouvées sur une superficie inférieure à 10 km². Du fait de la faible quantité d'individus et de la faible superficie de répartition, cette espèce va probablement être classée comme en danger critique d'extinction.
 </t>
         </is>
       </c>
